--- a/community_export.xlsx
+++ b/community_export.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F3D07B-E281-2C4C-BF54-9AFD4D373C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0945374E-3340-6549-9078-8146D3E337DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,16 +37,16 @@
     <t>街道</t>
   </si>
   <si>
-    <t>社区面积</t>
-  </si>
-  <si>
-    <t>社区管辖范围内的小区数量</t>
-  </si>
-  <si>
-    <t>覆盖居民人数</t>
-  </si>
-  <si>
-    <t>覆盖居民户数</t>
+    <t>社区面积（公顷）</t>
+  </si>
+  <si>
+    <t>社区管辖范围内的小区数量（个）</t>
+  </si>
+  <si>
+    <t>覆盖居民人数（人）</t>
+  </si>
+  <si>
+    <t>覆盖居民户数（户）</t>
   </si>
   <si>
     <t>设施完善</t>
@@ -61,7 +61,7 @@
     <t>面积是否达标（新建社区，建筑面积不小于350平方米）</t>
   </si>
   <si>
-    <t xml:space="preserve">建筑面积：____________平方米_x000D_
+    <t xml:space="preserve">建筑面积(平方米)
 </t>
   </si>
   <si>
@@ -92,10 +92,10 @@
     <t>面积是否达标</t>
   </si>
   <si>
-    <t>建筑面积：____________平方米</t>
-  </si>
-  <si>
-    <t>存在哪那些问题</t>
+    <t>建筑面积(平方米)</t>
+  </si>
+  <si>
+    <t>存在哪些问题</t>
   </si>
   <si>
     <t xml:space="preserve">存在对婴幼儿早期发展指导等照护服务不到位的问题，具体问题为：____________ </t>
@@ -104,10 +104,10 @@
     <t>幼儿园</t>
   </si>
   <si>
-    <t>用地面积：____________平方米</t>
-  </si>
-  <si>
-    <t>存在哪些问题</t>
+    <t>建筑面积（平方米）</t>
+  </si>
+  <si>
+    <t>用地面积（平方米）</t>
   </si>
   <si>
     <t>存在普惠性学前教育服务不到位的问题，具体问题为：____________</t>
@@ -116,13 +116,13 @@
     <t>小学学位</t>
   </si>
   <si>
-    <t>小学学 缺口数</t>
+    <t>小学学缺口数（个）</t>
   </si>
   <si>
     <t>停车泊位</t>
   </si>
   <si>
-    <t>停车泊位缺口数</t>
+    <t>停车泊位缺口数（个）</t>
   </si>
   <si>
     <t>是否存在停车占用以下空间问题</t>
@@ -137,84 +137,84 @@
     <t>新能源汽车充电桩</t>
   </si>
   <si>
-    <t>有充电桩供给能力与小区居民新能源汽车充电需求的差距(缺口数)</t>
+    <t>有充电桩供给能力与小区居民新能源汽车充电需求的差距(缺口数)（个）</t>
+  </si>
+  <si>
+    <t>充电桩在安装、使用、运维过程中存在问题，具体问题为：____________</t>
+  </si>
+  <si>
+    <t>环境宜居</t>
+  </si>
+  <si>
+    <t>公共活动场地</t>
+  </si>
+  <si>
+    <t>社区公共活动场地面积是否达标</t>
+  </si>
+  <si>
+    <t>用地面积（合计）（平方米）</t>
+  </si>
+  <si>
+    <t>公共绿地面积是否达标</t>
+  </si>
+  <si>
+    <t>儿童娱乐设施不足或破损</t>
+  </si>
+  <si>
+    <t xml:space="preserve">老年活动设施不足或破损 </t>
+  </si>
+  <si>
+    <t>体育健身设施不足或破损</t>
+  </si>
+  <si>
+    <t>不符合无障碍设计要求</t>
+  </si>
+  <si>
+    <t>场地存在私搭乱建问题</t>
+  </si>
+  <si>
+    <t>步行道</t>
+  </si>
+  <si>
+    <t>不达标的步行道长度（米）</t>
+  </si>
+  <si>
+    <t>存在那些问题</t>
+  </si>
+  <si>
+    <t>路面破损</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宽度不足  </t>
+  </si>
+  <si>
+    <t>雨后积水</t>
+  </si>
+  <si>
+    <t>铺装不防滑</t>
+  </si>
+  <si>
+    <t>不能联贯住宅和各类服务设施</t>
+  </si>
+  <si>
+    <t>夜间照明不足</t>
+  </si>
+  <si>
+    <t>垃圾分类</t>
+  </si>
+  <si>
+    <t>未实施生活垃圾分类的小区数量</t>
   </si>
   <si>
     <t>是否存在以下问题</t>
   </si>
   <si>
-    <t>充电桩在安装、使用、运维过程中存在问题，具体问题为：____________</t>
-  </si>
-  <si>
-    <t>环境宜居</t>
-  </si>
-  <si>
-    <t>公共活动场地</t>
-  </si>
-  <si>
-    <t>社区公共活动场地面积是否达标</t>
-  </si>
-  <si>
-    <t>用地面积（合计）：____________平方米</t>
-  </si>
-  <si>
-    <t>公共绿地面积是否达标</t>
-  </si>
-  <si>
-    <t>存在那些问题</t>
-  </si>
-  <si>
-    <t>儿童娱乐设施不足或破损</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老年活动设施不足或破损 </t>
-  </si>
-  <si>
-    <t>体育健身设施不足或破损</t>
-  </si>
-  <si>
-    <t>不符合无障碍设计要求</t>
-  </si>
-  <si>
-    <t>场地存在私搭乱建问题</t>
-  </si>
-  <si>
-    <t>步行道</t>
-  </si>
-  <si>
-    <t>路面破损</t>
-  </si>
-  <si>
-    <t xml:space="preserve">宽度不足  </t>
-  </si>
-  <si>
-    <t>雨后积水</t>
-  </si>
-  <si>
-    <t>铺装不防滑</t>
-  </si>
-  <si>
-    <t>不能联贯住宅和各类服务设施</t>
-  </si>
-  <si>
-    <t>夜间照明不足</t>
-  </si>
-  <si>
-    <t>不达标的步行道长度</t>
-  </si>
-  <si>
-    <t>垃圾分类</t>
-  </si>
-  <si>
     <t xml:space="preserve">没有实行垃圾分类制度  </t>
   </si>
   <si>
     <t xml:space="preserve">未建立分类投放、分类收集、分类运输、分类处理系统  </t>
   </si>
   <si>
-    <t>未实施生活垃圾分类的小区数量</t>
-  </si>
-  <si>
     <t>管理健全</t>
   </si>
   <si>
@@ -428,6 +428,9 @@
     <t>{.3.2.8}</t>
   </si>
   <si>
+    <t>{.3.2.8.2}</t>
+  </si>
+  <si>
     <t>{.3.2.8.1}</t>
   </si>
   <si>
@@ -455,12 +458,12 @@
     <t>{.3.2.8.1.8}</t>
   </si>
   <si>
-    <t>{.3.2.8.2}</t>
-  </si>
-  <si>
     <t>{.3.2.9}</t>
   </si>
   <si>
+    <t>{.3.2.9.2}</t>
+  </si>
+  <si>
     <t>{.3.2.9.1}</t>
   </si>
   <si>
@@ -471,9 +474,6 @@
   </si>
   <si>
     <t>{.3.2.9.1.3}</t>
-  </si>
-  <si>
-    <t>{.3.2.9.2}</t>
   </si>
   <si>
     <t>{.3.3}</t>
@@ -898,7 +898,7 @@
   <dimension ref="A1:CO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1002,13 +1002,13 @@
         <v>22</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1041,88 +1041,88 @@
         <v>38</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BN1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="BO1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>61</v>
@@ -1131,10 +1131,10 @@
         <v>62</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>64</v>
@@ -1143,7 +1143,7 @@
         <v>65</v>
       </c>
       <c r="BZ1" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="CA1" s="1" t="s">
         <v>66</v>
@@ -1167,7 +1167,7 @@
         <v>71</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>72</v>

--- a/community_export.xlsx
+++ b/community_export.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanxinzhao/Desktop/atv-qu/smokeManagement/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0945374E-3340-6549-9078-8146D3E337DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="24940" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="174">
   <si>
     <t>社区名</t>
   </si>
@@ -254,6 +249,9 @@
     <t>公共服务信息化建设不足</t>
   </si>
   <si>
+    <t>{.communityName}</t>
+  </si>
+  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -530,15 +528,29 @@
     <t>{.3.3.11.2.3}</t>
   </si>
   <si>
-    <t>{.communityName}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>点位</t>
+  </si>
+  <si>
+    <t>{.indicatorName}</t>
+  </si>
+  <si>
+    <t>{.location}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -551,7 +563,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -559,35 +577,356 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -595,9 +934,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -605,33 +1186,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -889,591 +1514,668 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="9" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.4615384615385" customWidth="1"/>
+    <col min="2" max="2" width="18.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="14.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="14.3076923076923" customWidth="1"/>
+    <col min="5" max="9" width="13.8461538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="4" customFormat="1" ht="42" customHeight="1" spans="1:93">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:93" s="2" customFormat="1" ht="44" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="3" customFormat="1" ht="44" customHeight="1" spans="1:93">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="BU2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BW2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BY2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="CA2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="CB2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="CE2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="CF2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="CG2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="CH2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="CI2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="CJ2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="CL2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="CM2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CN2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="CO2" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BC2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BD2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BE2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="BL2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="BQ2" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="BS2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="BU2" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="BW2" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY2" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CA2" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="CC2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="CE2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="CF2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="CH2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="CI2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="CK2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="CL2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="CM2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="CN2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="22.1538461538462" customWidth="1"/>
+    <col min="2" max="2" width="14.3846153846154" customWidth="1"/>
+    <col min="3" max="3" width="13.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="11.4615384615385" customWidth="1"/>
+    <col min="5" max="5" width="14.4615384615385" customWidth="1"/>
+    <col min="6" max="6" width="18.6923076923077" customWidth="1"/>
+    <col min="7" max="8" width="13.6153846153846" customWidth="1"/>
+    <col min="9" max="9" width="13.6923076923077" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="44" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>